--- a/Segmentation/SegmentationResultData20181021.xlsx
+++ b/Segmentation/SegmentationResultData20181021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Thesis\MyThesis\Segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Thesis\MyThesis\Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8774BCE-BCBE-4801-8A83-A99604EFD21F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLA_MyMethod" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <sheet name="HLA_PASS" sheetId="5" r:id="rId5"/>
     <sheet name="IPF_PASS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="43">
   <si>
     <t>Health Mean</t>
   </si>
@@ -168,11 +169,27 @@
     <t>Fail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>verage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +252,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,22 +529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375"/>
-    <col min="2" max="4" width="12.625"/>
-    <col min="6" max="6" width="16.25"/>
-    <col min="7" max="10" width="12.625"/>
+    <col min="1" max="1" width="15.33203125"/>
+    <col min="2" max="4" width="12.6640625"/>
+    <col min="6" max="6" width="16.21875"/>
+    <col min="7" max="10" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +593,7 @@
         <v>79.9499</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -599,7 +616,7 @@
         <v>75.090299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -622,7 +639,7 @@
         <v>82.417599999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -645,7 +662,7 @@
         <v>82.213399999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -668,7 +685,7 @@
         <v>58.532699999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -691,7 +708,7 @@
         <v>75.688100000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -714,7 +731,7 @@
         <v>55.279499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -737,7 +754,7 @@
         <v>73.9803</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -760,7 +777,7 @@
         <v>58.582099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -783,7 +800,7 @@
         <v>51.587299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -806,12 +823,12 @@
         <v>57.384999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -837,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -860,7 +877,7 @@
         <v>79.9499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -883,7 +900,7 @@
         <v>75.090299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -906,7 +923,7 @@
         <v>82.417599999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -929,7 +946,7 @@
         <v>82.213399999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -952,7 +969,7 @@
         <v>78.532700000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -975,7 +992,7 @@
         <v>75.688100000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>55.279499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1038,7 @@
         <v>73.9803</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1061,7 @@
         <v>66.582099999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>68.385000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1116,7 @@
         <v>73.811890000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,18 +1142,18 @@
         <v>7.9684262207100804</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1181,7 @@
         <v>3.6678000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1195,7 @@
         <v>3.6865999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>3.1892999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1223,7 @@
         <v>8.2123000000000008</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>6.5787000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1251,7 @@
         <v>57.935600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1265,7 @@
         <v>4.4268999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1279,7 @@
         <v>4.4988000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1293,7 @@
         <v>6.8457999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1298,25 +1315,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875"/>
-    <col min="4" max="4" width="9.375"/>
+    <col min="1" max="1" width="11.88671875"/>
+    <col min="4" max="4" width="9.33203125"/>
     <col min="9" max="9" width="16"/>
-    <col min="10" max="10" width="9.375"/>
-    <col min="11" max="11" width="10.375"/>
-    <col min="12" max="12" width="9.375"/>
-    <col min="13" max="13" width="12.625"/>
+    <col min="10" max="10" width="9.33203125"/>
+    <col min="11" max="11" width="10.33203125"/>
+    <col min="12" max="12" width="9.33203125"/>
+    <col min="13" max="13" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1382,7 @@
         <v>81.718199999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1405,7 @@
         <v>82.456299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1428,7 @@
         <v>55.4694</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1451,7 @@
         <v>28.979600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1474,7 @@
         <v>8.0018999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1497,7 @@
         <v>14.4183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>9.6960999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1543,7 @@
         <v>43.792999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1566,7 @@
         <v>48.4938</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1572,12 +1589,12 @@
         <v>39.341799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1603,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1626,7 +1643,7 @@
         <v>81.718199999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1666,7 @@
         <v>82.456299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1689,7 @@
         <v>59.4694</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1695,7 +1712,7 @@
         <v>58.979599999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1735,7 @@
         <v>62.001899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>48.418300000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +1781,7 @@
         <v>56.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +1804,7 @@
         <v>47.792999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>63.4938</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1850,7 @@
         <v>67.341800000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1865,7 +1882,7 @@
         <v>62.863329999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1899,22 +1916,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:J20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75"/>
-    <col min="2" max="6" width="8.625"/>
-    <col min="7" max="7" width="20.5"/>
-    <col min="8" max="1025" width="8.625"/>
+    <col min="1" max="1" width="13.77734375"/>
+    <col min="2" max="6" width="8.6640625"/>
+    <col min="7" max="7" width="20.44140625"/>
+    <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1983,7 @@
         <v>69.924800000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2009,7 @@
         <v>58.122700000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2035,7 @@
         <v>72.344300000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2061,7 @@
         <v>59.683799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>61.403500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>45.412799999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2139,7 @@
         <v>57.142899999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>58.931100000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2191,7 @@
         <v>50.373100000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>54.081600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2228,15 +2245,15 @@
         <v>35.351100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>69.924800000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>58.122700000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>72.344300000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>61.403500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +2435,7 @@
         <v>45.412799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2461,7 @@
         <v>57.142899999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2487,7 @@
         <v>58.931100000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2495,8 +2512,9 @@
       <c r="J25">
         <v>50.373100000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2542,7 @@
         <v>54.081600000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2550,8 +2568,40 @@
         <v>35.351100000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G29" s="1" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(B17:B27)</f>
+        <v>3.2461199999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:D28" si="0">AVERAGE(C17:C27)</f>
+        <v>7.505609999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4.5241299999999995</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="1">AVERAGE(H17:H27)</f>
+        <v>66.901750000000007</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="2">AVERAGE(I17:I27)</f>
+        <v>47.967320000000001</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="3">AVERAGE(J17:J27)</f>
+        <v>56.308790000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2563,21 +2613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.625"/>
+    <col min="1" max="6" width="8.6640625"/>
     <col min="7" max="7" width="15"/>
-    <col min="8" max="1025" width="8.625"/>
+    <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2603,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2655,7 +2705,7 @@
         <v>55.4328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2681,7 +2731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2707,7 +2757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2733,7 +2783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2791,7 +2841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2817,7 +2867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2843,7 +2893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2872,9 +2922,43 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>8.1761999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:J12" si="0">AVERAGE(C2:C11)</f>
+        <v>17.531225000000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>8.9078499999999998</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>44.575699999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>16.826142499999996</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>36.569000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2886,22 +2970,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75"/>
-    <col min="2" max="6" width="8.625"/>
-    <col min="7" max="7" width="20.5"/>
-    <col min="8" max="1025" width="8.625"/>
+    <col min="1" max="1" width="13.77734375"/>
+    <col min="2" max="6" width="8.6640625"/>
+    <col min="7" max="7" width="20.44140625"/>
+    <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2953,7 +3037,7 @@
         <v>87.719300000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2979,7 +3063,7 @@
         <v>96.028899999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3089,7 @@
         <v>96.520099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3115,7 @@
         <v>96.442700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3083,7 +3167,7 @@
         <v>94.495400000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3193,7 @@
         <v>57.764000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3219,7 @@
         <v>71.308000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3245,7 @@
         <v>73.507499999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3273,7 @@
         <v>86.394599999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3215,8 +3299,40 @@
         <v>70.702200000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G14" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B12)</f>
+        <v>2.037992</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="0">AVERAGE(C2:C12)</f>
+        <v>4.2079750000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.1451479999999998</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>80.843019999999996</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>64.657524999999993</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>83.088270000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3228,21 +3344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.625"/>
+    <col min="1" max="6" width="8.6640625"/>
     <col min="7" max="7" width="15"/>
-    <col min="8" max="1025" width="8.625"/>
+    <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3268,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3294,7 +3410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3346,7 +3462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3372,7 +3488,7 @@
         <v>6.1176000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3424,7 +3540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3450,7 +3566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3476,7 +3592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3502,7 +3618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3528,12 +3644,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3559,7 +3675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3585,7 +3701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3611,7 +3727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3637,7 +3753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3663,7 +3779,7 @@
         <v>6.1176000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3689,7 +3805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3715,7 +3831,7 @@
         <v>41.563000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3741,7 +3857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3767,7 +3883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3793,7 +3909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3819,12 +3935,44 @@
         <v>67.084699999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G27" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B16:B25)</f>
+        <v>3.9025000000000003</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:J26" si="0">AVERAGE(C16:C25)</f>
+        <v>8.8254999999999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>19.867833333333333</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>62.750933333333336</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>34.291499999999999</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>38.255099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3832,7 +3980,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3840,7 +3988,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3848,7 +3996,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3856,13 +4004,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3870,7 +4018,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3878,7 +4026,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K39" s="1"/>
     </row>
   </sheetData>

--- a/Segmentation/SegmentationResultData20181021.xlsx
+++ b/Segmentation/SegmentationResultData20181021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Thesis\MyThesis\Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8774BCE-BCBE-4801-8A83-A99604EFD21F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD20ED1-5AAF-46BE-817B-0880C89F0F5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="46">
   <si>
     <t>Health Mean</t>
   </si>
@@ -182,6 +182,42 @@
         <charset val="134"/>
       </rPr>
       <t>verage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ve</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>td</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,7 +288,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1346,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1917,10 +1953,1128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375"/>
+    <col min="2" max="6" width="8.6640625"/>
+    <col min="7" max="7" width="20.44140625"/>
+    <col min="8" max="21" width="8.6640625"/>
+    <col min="22" max="22" width="7.77734375" customWidth="1"/>
+    <col min="23" max="1025" width="8.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.3201000000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.5392999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>77.336500000000001</v>
+      </c>
+      <c r="I2">
+        <v>73.684200000000004</v>
+      </c>
+      <c r="J2">
+        <v>69.924800000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.5827</v>
+      </c>
+      <c r="C3">
+        <v>3.2111999999999998</v>
+      </c>
+      <c r="D3">
+        <v>2.9771000000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>82.647099999999995</v>
+      </c>
+      <c r="I3">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="J3">
+        <v>58.122700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3.1785999999999999</v>
+      </c>
+      <c r="C4">
+        <v>2.6825999999999999</v>
+      </c>
+      <c r="D4">
+        <v>2.4862000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>72.857100000000003</v>
+      </c>
+      <c r="I4">
+        <v>72.588800000000006</v>
+      </c>
+      <c r="J4">
+        <v>72.344300000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4.1521999999999997</v>
+      </c>
+      <c r="C5">
+        <v>2.7526000000000002</v>
+      </c>
+      <c r="D5">
+        <v>3.4763999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>73.308300000000003</v>
+      </c>
+      <c r="I5">
+        <v>70.454499999999996</v>
+      </c>
+      <c r="J5">
+        <v>59.683799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1.2465999999999999</v>
+      </c>
+      <c r="C6">
+        <v>10.0084</v>
+      </c>
+      <c r="D6">
+        <v>3.2324000000000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>90.714299999999994</v>
+      </c>
+      <c r="I6">
+        <v>41.732300000000002</v>
+      </c>
+      <c r="J6">
+        <v>61.403500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.782</v>
+      </c>
+      <c r="C7">
+        <v>2.6442999999999999</v>
+      </c>
+      <c r="D7">
+        <v>8.3104999999999993</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>53.571399999999997</v>
+      </c>
+      <c r="I7">
+        <v>65.437799999999996</v>
+      </c>
+      <c r="J7">
+        <v>45.412799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.7508999999999999</v>
+      </c>
+      <c r="C8">
+        <v>4.2023999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.1736</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>76.958500000000001</v>
+      </c>
+      <c r="I8">
+        <v>54.054099999999998</v>
+      </c>
+      <c r="J8">
+        <v>57.142899999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2.9983</v>
+      </c>
+      <c r="C9">
+        <v>6.6147999999999998</v>
+      </c>
+      <c r="D9">
+        <v>3.9706000000000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>66.1738</v>
+      </c>
+      <c r="I9">
+        <v>22.829599999999999</v>
+      </c>
+      <c r="J9">
+        <v>58.931100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5.6894999999999998</v>
+      </c>
+      <c r="C10">
+        <v>21.739000000000001</v>
+      </c>
+      <c r="D10">
+        <v>5.7237999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>44.255299999999998</v>
+      </c>
+      <c r="I10">
+        <v>21.875</v>
+      </c>
+      <c r="J10">
+        <v>50.373100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.7076000000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5960999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.2179000000000002</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <v>54.947899999999997</v>
+      </c>
+      <c r="I11" s="2">
+        <v>57.519799999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <v>54.081600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>5.5460000000000003</v>
+      </c>
+      <c r="C12">
+        <v>18.037199999999999</v>
+      </c>
+      <c r="D12">
+        <v>8.6098999999999997</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>49.555599999999998</v>
+      </c>
+      <c r="I12">
+        <v>11.6183</v>
+      </c>
+      <c r="J12">
+        <v>35.351100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.3201000000000001</v>
+      </c>
+      <c r="D17">
+        <v>2.5392999999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>77.336500000000001</v>
+      </c>
+      <c r="I17">
+        <v>73.684200000000004</v>
+      </c>
+      <c r="J17">
+        <v>69.924800000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1.5827</v>
+      </c>
+      <c r="C18">
+        <v>3.2111999999999998</v>
+      </c>
+      <c r="D18">
+        <v>2.9771000000000001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>82.647099999999995</v>
+      </c>
+      <c r="I18">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="J18">
+        <v>58.122700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>3.1785999999999999</v>
+      </c>
+      <c r="C19">
+        <v>2.6825999999999999</v>
+      </c>
+      <c r="D19">
+        <v>2.4862000000000002</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>72.857100000000003</v>
+      </c>
+      <c r="I19">
+        <v>72.588800000000006</v>
+      </c>
+      <c r="J19">
+        <v>72.344300000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1.2465999999999999</v>
+      </c>
+      <c r="C21">
+        <v>10.0084</v>
+      </c>
+      <c r="D21">
+        <v>3.2324000000000002</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>90.714299999999994</v>
+      </c>
+      <c r="I21">
+        <v>41.732300000000002</v>
+      </c>
+      <c r="J21">
+        <v>61.403500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>3.782</v>
+      </c>
+      <c r="C22">
+        <v>2.6442999999999999</v>
+      </c>
+      <c r="D22">
+        <v>8.3104999999999993</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>53.571399999999997</v>
+      </c>
+      <c r="I22">
+        <v>65.437799999999996</v>
+      </c>
+      <c r="J22">
+        <v>45.412799999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>1.7508999999999999</v>
+      </c>
+      <c r="C23">
+        <v>4.2023999999999999</v>
+      </c>
+      <c r="D23">
+        <v>3.1736</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>76.958500000000001</v>
+      </c>
+      <c r="I23">
+        <v>54.054099999999998</v>
+      </c>
+      <c r="J23">
+        <v>57.142899999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2.9983</v>
+      </c>
+      <c r="C24">
+        <v>6.6147999999999998</v>
+      </c>
+      <c r="D24">
+        <v>3.9706000000000001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>66.1738</v>
+      </c>
+      <c r="I24">
+        <v>22.829599999999999</v>
+      </c>
+      <c r="J24">
+        <v>58.931100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>5.6894999999999998</v>
+      </c>
+      <c r="C25">
+        <v>21.739000000000001</v>
+      </c>
+      <c r="D25">
+        <v>5.7237999999999998</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>44.255299999999998</v>
+      </c>
+      <c r="I25">
+        <v>21.875</v>
+      </c>
+      <c r="J25">
+        <v>50.373100000000001</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.7076000000000002</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.5960999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.2179000000000002</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2">
+        <v>54.947899999999997</v>
+      </c>
+      <c r="I26" s="2">
+        <v>57.519799999999996</v>
+      </c>
+      <c r="J26" s="2">
+        <v>54.081600000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>5.5460000000000003</v>
+      </c>
+      <c r="C27">
+        <v>18.037199999999999</v>
+      </c>
+      <c r="D27">
+        <v>8.6098999999999997</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>49.555599999999998</v>
+      </c>
+      <c r="I27">
+        <v>11.6183</v>
+      </c>
+      <c r="J27">
+        <v>35.351100000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>3.083733333333333</v>
+      </c>
+      <c r="C28">
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="D28">
+        <v>4.5581555555555546</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28">
+        <v>68.229955555555563</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(I16:I24)</f>
+        <v>55.522871428571435</v>
+      </c>
+      <c r="J28">
+        <v>56.556255555555559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>1.5628212494645004</v>
+      </c>
+      <c r="C29">
+        <v>6.8475417722144813</v>
+      </c>
+      <c r="D29">
+        <v>2.2789814123912238</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>15.042693300670054</v>
+      </c>
+      <c r="I29">
+        <f>STDEVP(I16:I24)</f>
+        <v>16.854296770320634</v>
+      </c>
+      <c r="J29">
+        <v>10.9137045811535</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="8.6640625"/>
+    <col min="7" max="7" width="15"/>
+    <col min="8" max="1025" width="8.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>17.904</v>
+      </c>
+      <c r="C3">
+        <v>10.602600000000001</v>
+      </c>
+      <c r="D3">
+        <v>3.5575999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>22.8856</v>
+      </c>
+      <c r="I3">
+        <v>12.244899999999999</v>
+      </c>
+      <c r="J3">
+        <v>55.4328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>6.7058</v>
+      </c>
+      <c r="C7">
+        <v>41.014800000000001</v>
+      </c>
+      <c r="D7">
+        <v>15.882199999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>39.204999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.53027000000000002</v>
+      </c>
+      <c r="J7">
+        <v>23.697399999999998</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="C8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D8">
+        <v>11.6576</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>44.680900000000001</v>
+      </c>
+      <c r="I8">
+        <v>19.642299999999999</v>
+      </c>
+      <c r="J8">
+        <v>19.334199999999999</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3.1259999999999999</v>
+      </c>
+      <c r="C11">
+        <v>9.3074999999999992</v>
+      </c>
+      <c r="D11">
+        <v>4.5339999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>71.531300000000002</v>
+      </c>
+      <c r="I11">
+        <v>34.887099999999997</v>
+      </c>
+      <c r="J11">
+        <v>47.811599999999999</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>8.1761999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:J12" si="0">AVERAGE(C2:C11)</f>
+        <v>17.531225000000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>8.9078499999999998</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>44.575699999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>16.826142499999996</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>36.569000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <f>STDEVP(B2:B11)</f>
+        <v>5.7572306901843033</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="1">STDEVP(C2:C11)</f>
+        <v>13.569479559359486</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>5.0980001439289913</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <f>STDEVP(H2:H11)</f>
+        <v>17.506572300853186</v>
+      </c>
+      <c r="I13">
+        <f>STDEVP(I2:I11)</f>
+        <v>12.45664654172297</v>
+      </c>
+      <c r="J13">
+        <f>STDEVP(J2:J11)</f>
+        <v>15.370063620557975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1931,7 +3085,7 @@
     <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1957,252 +3111,252 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.9790000000000001</v>
+        <v>1.1392</v>
       </c>
       <c r="C2">
-        <v>2.3201000000000001</v>
+        <v>1.7729999999999999</v>
       </c>
       <c r="D2">
-        <v>2.5392999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>77.336500000000001</v>
+        <v>89.662000000000006</v>
       </c>
       <c r="I2">
-        <v>73.684200000000004</v>
+        <v>81.578900000000004</v>
       </c>
       <c r="J2">
-        <v>69.924800000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.719300000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.5827</v>
+        <v>0.56647000000000003</v>
       </c>
       <c r="C3">
-        <v>3.2111999999999998</v>
+        <v>1.5963000000000001</v>
       </c>
       <c r="D3">
-        <v>2.9771000000000001</v>
+        <v>0.64217999999999997</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>82.647099999999995</v>
+        <v>95.882400000000004</v>
       </c>
       <c r="I3">
-        <v>58.333300000000001</v>
+        <v>86.742400000000004</v>
       </c>
       <c r="J3">
-        <v>58.122700000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96.028899999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3.1785999999999999</v>
+        <v>0.92745999999999995</v>
       </c>
       <c r="C4">
-        <v>2.6825999999999999</v>
+        <v>1.3123</v>
       </c>
       <c r="D4">
-        <v>2.4862000000000002</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>72.857100000000003</v>
+        <v>92.244900000000001</v>
       </c>
       <c r="I4">
-        <v>72.588800000000006</v>
+        <v>88.3249</v>
       </c>
       <c r="J4">
-        <v>72.344300000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96.520099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.1521999999999997</v>
+        <v>2.6518000000000002</v>
       </c>
       <c r="C5">
-        <v>2.7526000000000002</v>
+        <v>1.6099000000000001</v>
       </c>
       <c r="D5">
-        <v>3.4763999999999999</v>
+        <v>1.3777999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5">
-        <v>73.308300000000003</v>
+        <v>81.954899999999995</v>
       </c>
       <c r="I5">
-        <v>70.454499999999996</v>
+        <v>88.636399999999995</v>
       </c>
       <c r="J5">
-        <v>59.683799999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96.442700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1.2465999999999999</v>
-      </c>
-      <c r="C6">
-        <v>10.0084</v>
-      </c>
-      <c r="D6">
-        <v>3.2324000000000002</v>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6">
-        <v>90.714299999999994</v>
-      </c>
-      <c r="I6">
-        <v>41.732300000000002</v>
-      </c>
-      <c r="J6">
-        <v>61.403500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3.782</v>
+        <v>0.91998999999999997</v>
       </c>
       <c r="C7">
-        <v>2.6442999999999999</v>
+        <v>6.3795999999999999</v>
       </c>
       <c r="D7">
-        <v>8.3104999999999993</v>
+        <v>4.9290000000000003</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>53.571399999999997</v>
+        <v>95.982100000000003</v>
       </c>
       <c r="I7">
-        <v>65.437799999999996</v>
+        <v>56.221200000000003</v>
       </c>
       <c r="J7">
-        <v>45.412799999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94.495400000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1.7508999999999999</v>
-      </c>
-      <c r="C8">
-        <v>4.2023999999999999</v>
+        <v>3.5371000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>3.1736</v>
+        <v>3.476</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8">
-        <v>76.958500000000001</v>
-      </c>
-      <c r="I8">
-        <v>54.054099999999998</v>
+        <v>66.359399999999994</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>57.142899999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57.764000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.9983</v>
+        <v>2.6833999999999998</v>
       </c>
       <c r="C9">
-        <v>6.6147999999999998</v>
+        <v>4.4842000000000004</v>
       </c>
       <c r="D9">
-        <v>3.9706000000000001</v>
+        <v>2.4035000000000002</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9">
-        <v>66.1738</v>
+        <v>68.022199999999998</v>
       </c>
       <c r="I9">
-        <v>22.829599999999999</v>
+        <v>39.228299999999997</v>
       </c>
       <c r="J9">
-        <v>58.931100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71.308000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>5.6894999999999998</v>
-      </c>
-      <c r="C10">
-        <v>21.739000000000001</v>
+        <v>2.6063999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>5.7237999999999998</v>
+        <v>2.8921999999999999</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>44.255299999999998</v>
-      </c>
-      <c r="I10">
-        <v>21.875</v>
+        <v>70.638300000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
       </c>
       <c r="J10">
-        <v>50.373100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73.507499999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>4.7076000000000002</v>
+        <v>3.4525000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>3.5960999999999999</v>
+        <v>3.3965000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>4.2179000000000002</v>
+        <v>1.4077</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2210,1086 +3364,32 @@
         <v>14</v>
       </c>
       <c r="H11" s="2">
-        <v>54.947899999999997</v>
+        <v>70.572900000000004</v>
       </c>
       <c r="I11" s="2">
-        <v>57.519799999999996</v>
+        <v>62.005299999999998</v>
       </c>
       <c r="J11" s="2">
-        <v>54.081600000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86.394599999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>5.5460000000000003</v>
+        <v>1.8956</v>
       </c>
       <c r="C12">
-        <v>18.037199999999999</v>
+        <v>13.112</v>
       </c>
       <c r="D12">
-        <v>8.6098999999999997</v>
+        <v>2.5350999999999999</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12">
-        <v>49.555599999999998</v>
-      </c>
-      <c r="I12">
-        <v>11.6183</v>
-      </c>
-      <c r="J12">
-        <v>35.351100000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="C17">
-        <v>2.3201000000000001</v>
-      </c>
-      <c r="D17">
-        <v>2.5392999999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>77.336500000000001</v>
-      </c>
-      <c r="I17">
-        <v>73.684200000000004</v>
-      </c>
-      <c r="J17">
-        <v>69.924800000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1.5827</v>
-      </c>
-      <c r="C18">
-        <v>3.2111999999999998</v>
-      </c>
-      <c r="D18">
-        <v>2.9771000000000001</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>82.647099999999995</v>
-      </c>
-      <c r="I18">
-        <v>58.333300000000001</v>
-      </c>
-      <c r="J18">
-        <v>58.122700000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>3.1785999999999999</v>
-      </c>
-      <c r="C19">
-        <v>2.6825999999999999</v>
-      </c>
-      <c r="D19">
-        <v>2.4862000000000002</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>72.857100000000003</v>
-      </c>
-      <c r="I19">
-        <v>72.588800000000006</v>
-      </c>
-      <c r="J19">
-        <v>72.344300000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>1.2465999999999999</v>
-      </c>
-      <c r="C21">
-        <v>10.0084</v>
-      </c>
-      <c r="D21">
-        <v>3.2324000000000002</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>90.714299999999994</v>
-      </c>
-      <c r="I21">
-        <v>41.732300000000002</v>
-      </c>
-      <c r="J21">
-        <v>61.403500000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>3.782</v>
-      </c>
-      <c r="C22">
-        <v>2.6442999999999999</v>
-      </c>
-      <c r="D22">
-        <v>8.3104999999999993</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>53.571399999999997</v>
-      </c>
-      <c r="I22">
-        <v>65.437799999999996</v>
-      </c>
-      <c r="J22">
-        <v>45.412799999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>1.7508999999999999</v>
-      </c>
-      <c r="C23">
-        <v>4.2023999999999999</v>
-      </c>
-      <c r="D23">
-        <v>3.1736</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <v>76.958500000000001</v>
-      </c>
-      <c r="I23">
-        <v>54.054099999999998</v>
-      </c>
-      <c r="J23">
-        <v>57.142899999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>2.9983</v>
-      </c>
-      <c r="C24">
-        <v>6.6147999999999998</v>
-      </c>
-      <c r="D24">
-        <v>3.9706000000000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>66.1738</v>
-      </c>
-      <c r="I24">
-        <v>22.829599999999999</v>
-      </c>
-      <c r="J24">
-        <v>58.931100000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>5.6894999999999998</v>
-      </c>
-      <c r="C25">
-        <v>21.739000000000001</v>
-      </c>
-      <c r="D25">
-        <v>5.7237999999999998</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25">
-        <v>44.255299999999998</v>
-      </c>
-      <c r="I25">
-        <v>21.875</v>
-      </c>
-      <c r="J25">
-        <v>50.373100000000001</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4.7076000000000002</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3.5960999999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.2179000000000002</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2">
-        <v>54.947899999999997</v>
-      </c>
-      <c r="I26" s="2">
-        <v>57.519799999999996</v>
-      </c>
-      <c r="J26" s="2">
-        <v>54.081600000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="C27">
-        <v>18.037199999999999</v>
-      </c>
-      <c r="D27">
-        <v>8.6098999999999997</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27">
-        <v>49.555599999999998</v>
-      </c>
-      <c r="I27">
-        <v>11.6183</v>
-      </c>
-      <c r="J27">
-        <v>35.351100000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <f>AVERAGE(B17:B27)</f>
-        <v>3.2461199999999999</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:D28" si="0">AVERAGE(C17:C27)</f>
-        <v>7.505609999999999</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>4.5241299999999995</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28" si="1">AVERAGE(H17:H27)</f>
-        <v>66.901750000000007</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ref="I28" si="2">AVERAGE(I17:I27)</f>
-        <v>47.967320000000001</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28" si="3">AVERAGE(J17:J27)</f>
-        <v>56.308790000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="8.6640625"/>
-    <col min="7" max="7" width="15"/>
-    <col min="8" max="1025" width="8.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>17.904</v>
-      </c>
-      <c r="C3">
-        <v>10.602600000000001</v>
-      </c>
-      <c r="D3">
-        <v>3.5575999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>22.8856</v>
-      </c>
-      <c r="I3">
-        <v>12.244899999999999</v>
-      </c>
-      <c r="J3">
-        <v>55.4328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>6.7058</v>
-      </c>
-      <c r="C7">
-        <v>41.014800000000001</v>
-      </c>
-      <c r="D7">
-        <v>15.882199999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <v>39.204999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.53027000000000002</v>
-      </c>
-      <c r="J7">
-        <v>23.697399999999998</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>4.9690000000000003</v>
-      </c>
-      <c r="C8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D8">
-        <v>11.6576</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>44.680900000000001</v>
-      </c>
-      <c r="I8">
-        <v>19.642299999999999</v>
-      </c>
-      <c r="J8">
-        <v>19.334199999999999</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>3.1259999999999999</v>
-      </c>
-      <c r="C11">
-        <v>9.3074999999999992</v>
-      </c>
-      <c r="D11">
-        <v>4.5339999999999998</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11">
-        <v>71.531300000000002</v>
-      </c>
-      <c r="I11">
-        <v>34.887099999999997</v>
-      </c>
-      <c r="J11">
-        <v>47.811599999999999</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>8.1761999999999997</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:J12" si="0">AVERAGE(C2:C11)</f>
-        <v>17.531225000000003</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>8.9078499999999998</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>44.575699999999998</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>16.826142499999996</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>36.569000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375"/>
-    <col min="2" max="6" width="8.6640625"/>
-    <col min="7" max="7" width="20.44140625"/>
-    <col min="8" max="1025" width="8.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1.1392</v>
-      </c>
-      <c r="C2">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="D2">
-        <v>1.125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>89.662000000000006</v>
-      </c>
-      <c r="I2">
-        <v>81.578900000000004</v>
-      </c>
-      <c r="J2">
-        <v>87.719300000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.56647000000000003</v>
-      </c>
-      <c r="C3">
-        <v>1.5963000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.64217999999999997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>95.882400000000004</v>
-      </c>
-      <c r="I3">
-        <v>86.742400000000004</v>
-      </c>
-      <c r="J3">
-        <v>96.028899999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.92745999999999995</v>
-      </c>
-      <c r="C4">
-        <v>1.3123</v>
-      </c>
-      <c r="D4">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>92.244900000000001</v>
-      </c>
-      <c r="I4">
-        <v>88.3249</v>
-      </c>
-      <c r="J4">
-        <v>96.520099999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2.6518000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1.6099000000000001</v>
-      </c>
-      <c r="D5">
-        <v>1.3777999999999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>81.954899999999995</v>
-      </c>
-      <c r="I5">
-        <v>88.636399999999995</v>
-      </c>
-      <c r="J5">
-        <v>96.442700000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.91998999999999997</v>
-      </c>
-      <c r="C7">
-        <v>6.3795999999999999</v>
-      </c>
-      <c r="D7">
-        <v>4.9290000000000003</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>95.982100000000003</v>
-      </c>
-      <c r="I7">
-        <v>56.221200000000003</v>
-      </c>
-      <c r="J7">
-        <v>94.495400000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3.5371000000000001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>3.476</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>66.359399999999994</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8">
-        <v>57.764000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2.6833999999999998</v>
-      </c>
-      <c r="C9">
-        <v>4.4842000000000004</v>
-      </c>
-      <c r="D9">
-        <v>2.4035000000000002</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>68.022199999999998</v>
-      </c>
-      <c r="I9">
-        <v>39.228299999999997</v>
-      </c>
-      <c r="J9">
-        <v>71.308000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2.6063999999999998</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>2.8921999999999999</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>70.638300000000001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10">
-        <v>73.507499999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3.4525000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3.3965000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.4077</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>70.572900000000004</v>
-      </c>
-      <c r="I11" s="2">
-        <v>62.005299999999998</v>
-      </c>
-      <c r="J11" s="2">
-        <v>86.394599999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1.8956</v>
-      </c>
-      <c r="C12">
-        <v>13.112</v>
-      </c>
-      <c r="D12">
-        <v>2.5350999999999999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12">
         <v>77.111099999999993</v>
       </c>
       <c r="I12">
@@ -3299,40 +3399,68 @@
         <v>70.702200000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B2:B12)</f>
-        <v>2.037992</v>
+        <v>1.8808244444444442</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:J13" si="0">AVERAGE(C2:C12)</f>
-        <v>4.2079750000000002</v>
+        <v>4.3239000000000001</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.1451479999999998</v>
+        <v>2.2270866666666667</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>80.843019999999996</v>
+        <v>81.984144444444439</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>64.657524999999993</v>
+        <v>65.036414285714287</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>83.088270000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
+        <v>82.7209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0.97855328391924423</v>
+      </c>
+      <c r="C14">
+        <v>3.997583615135524</v>
+      </c>
+      <c r="D14">
+        <v>1.3467107626773875</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>11.278696599746631</v>
+      </c>
+      <c r="I14">
+        <v>27.096411296671135</v>
+      </c>
+      <c r="J14">
+        <v>13.751236170533097</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3348,7 +3476,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3967,8 +4095,40 @@
         <v>38.255099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <f>STDEVP(B16:B25)</f>
+        <v>0.67808631210684722</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:J27" si="1">STDEVP(C16:C25)</f>
+        <v>1.2616999999999992</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>20.759623739418359</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>7.5057010022752531</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>15.104200000000008</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>24.99937962443601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
